--- a/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_LayerCAM_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_LayerCAM_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.225676596494037</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2247407949640457</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2853089590386986</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3105995955502278</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2260673465968928</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006669910513243402</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006666864955509278</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006863983505359256</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006758254624736537</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006668276961198987</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01517991146073604</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.0151070757426937</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.01982124384297801</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02031800092165057</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01518758654947876</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004680743307117606</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004683387808315251</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004512226961382061</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004394645123737107</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004678926622308868</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005067874766476916</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005073463308538596</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004711754418691853</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004548991414550019</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005065360015194138</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006378430979276574</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006369851610723882</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.006925136663700785</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.006706409978411658</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.00637505156750358</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006594719242771305</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006603143712585709</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.00605788421726795</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.005926973649058788</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006592696623927002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.2935178117659954</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2938802332653943</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2704231174814965</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2651345392938461</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2934361011902321</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1531819994075556</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1535304560923241</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1309771892087361</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1328911926837092</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1532115715005463</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002488096563574003</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002483897901887061</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002755649145925442</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.00279986362576546</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.002488779694365792</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.02045791673624401</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.02047683878138726</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.01925214155859578</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.01839208044499655</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.02044462845983198</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002494005031024047</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002494585204350658</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002457034471517322</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002275963810799283</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002491207419375667</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.0194488725432246</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01947372820236264</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01786498789514189</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01659689616981061</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01942928003625552</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2272975414638279</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2276355324684835</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2057596389487123</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.18725587657781</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2270116511879403</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.002839632956802489</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.002841466062111995</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.002722821435453476</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.002687691494095398</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.002839090185639229</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002432511359121756</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002436626970767712</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.002170250999526778</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.002217218797086931</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002433237029735817</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002578291022331087</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0002599912695470592</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001200486637368571</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001067754380620702</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0002576240257695217</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005325701781596739</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.005232072975426705</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01129203837671359</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01038618066928947</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005311705930120753</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>9.894940112966528e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>9.988946000882318e-06</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>3.904574624274461e-06</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>2.85864478298722e-06</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>9.87878009291814e-06</v>
       </c>
     </row>
